--- a/main/ig/StructureDefinition-as-dr-healthcareservice-healthcare-activity.xlsx
+++ b/main/ig/StructureDefinition-as-dr-healthcareservice-healthcare-activity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-25T09:39:16+00:00</t>
+    <t>2025-08-01T06:15:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-dr-healthcareservice-healthcare-activity.xlsx
+++ b/main/ig/StructureDefinition-as-dr-healthcareservice-healthcare-activity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-01T06:15:10+00:00</t>
+    <t>2025-08-11T13:13:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-dr-healthcareservice-healthcare-activity.xlsx
+++ b/main/ig/StructureDefinition-as-dr-healthcareservice-healthcare-activity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-11T13:13:26+00:00</t>
+    <t>2025-08-11T13:13:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-dr-healthcareservice-healthcare-activity.xlsx
+++ b/main/ig/StructureDefinition-as-dr-healthcareservice-healthcare-activity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-11T13:13:41+00:00</t>
+    <t>2025-08-11T17:10:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-dr-healthcareservice-healthcare-activity.xlsx
+++ b/main/ig/StructureDefinition-as-dr-healthcareservice-healthcare-activity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-11T17:10:25+00:00</t>
+    <t>2025-09-16T13:34:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -606,7 +606,7 @@
     <t>HealthcareService.meta.profile</t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(StructureDefinition)
+    <t xml:space="preserve">canonical(StructureDefinition|4.0.1)
 </t>
   </si>
   <si>
@@ -654,7 +654,7 @@
     <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
+    <t>http://hl7.org/fhir/ValueSet/security-labels|4.0.1</t>
   </si>
   <si>
     <t>Meta.security</t>
@@ -678,7 +678,7 @@
     <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones".</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/common-tags</t>
+    <t>http://hl7.org/fhir/ValueSet/common-tags|4.0.1</t>
   </si>
   <si>
     <t>Meta.tag</t>
@@ -717,7 +717,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -912,7 +912,7 @@
     <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type|4.0.1</t>
   </si>
   <si>
     <t>Identifier.type</t>
@@ -1000,7 +1000,7 @@
     <t>HealthcareService.identifier.assigner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -1104,7 +1104,7 @@
     <t>Additional details about where the content was created (e.g. clinical specialty).</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/service-type</t>
+    <t>http://hl7.org/fhir/ValueSet/service-type|4.0.1</t>
   </si>
   <si>
     <t>.actrelationship[typeCode=COMP.act[classCode=ACT][moodCode=DEF].code</t>
@@ -1149,7 +1149,7 @@
     <t>HealthcareService.location</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Location)
+    <t xml:space="preserve">Reference(Location|4.0.1)
 </t>
   </si>
   <si>
@@ -1270,7 +1270,7 @@
     <t>The provision means being commissioned by, contractually obliged or financially sourced. Types of costings that may apply to this healthcare service, such if the service may be available for free, some discounts available, or fees apply.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/service-provision-conditions</t>
+    <t>http://hl7.org/fhir/ValueSet/service-provision-conditions|4.0.1</t>
   </si>
   <si>
     <t>.actrelationship[typeCode=PRCN].observation[moodCode=EVN.CRT]</t>
@@ -1354,7 +1354,7 @@
     <t>Government or local programs that this service applies to.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/program</t>
+    <t>http://hl7.org/fhir/ValueSet/program|4.0.1</t>
   </si>
   <si>
     <t>.actrelationship[typeCode=PERT].observation</t>
@@ -1399,7 +1399,7 @@
     <t>The methods of referral can be used when referring to a specific HealthCareService resource.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/service-referral-method</t>
+    <t>http://hl7.org/fhir/ValueSet/service-referral-method|4.0.1</t>
   </si>
   <si>
     <t>HealthcareService.appointmentRequired</t>
@@ -1532,7 +1532,7 @@
     <t>HealthcareService.endpoint</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Endpoint)
+    <t xml:space="preserve">Reference(Endpoint|4.0.1)
 </t>
   </si>
   <si>

--- a/main/ig/StructureDefinition-as-dr-healthcareservice-healthcare-activity.xlsx
+++ b/main/ig/StructureDefinition-as-dr-healthcareservice-healthcare-activity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-16T13:34:10+00:00</t>
+    <t>2025-09-18T08:13:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-dr-healthcareservice-healthcare-activity.xlsx
+++ b/main/ig/StructureDefinition-as-dr-healthcareservice-healthcare-activity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-18T08:13:56+00:00</t>
+    <t>2025-09-18T15:39:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-dr-healthcareservice-healthcare-activity.xlsx
+++ b/main/ig/StructureDefinition-as-dr-healthcareservice-healthcare-activity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-18T15:39:47+00:00</t>
+    <t>2025-09-18T15:54:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-dr-healthcareservice-healthcare-activity.xlsx
+++ b/main/ig/StructureDefinition-as-dr-healthcareservice-healthcare-activity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-18T15:54:11+00:00</t>
+    <t>2025-10-08T12:14:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2557,7 +2557,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="7" hidden="true">
+    <row r="7">
       <c r="A7" t="s" s="2">
         <v>114</v>
       </c>
@@ -3943,7 +3943,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="20" hidden="true">
+    <row r="20">
       <c r="A20" t="s" s="2">
         <v>159</v>
       </c>
@@ -5985,7 +5985,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="39" hidden="true">
+    <row r="39">
       <c r="A39" t="s" s="2">
         <v>245</v>
       </c>
@@ -6309,7 +6309,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="42" hidden="true">
+    <row r="42">
       <c r="A42" t="s" s="2">
         <v>264</v>
       </c>
@@ -7393,7 +7393,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="52" hidden="true">
+    <row r="52">
       <c r="A52" t="s" s="2">
         <v>331</v>
       </c>
@@ -7501,7 +7501,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="53" hidden="true">
+    <row r="53">
       <c r="A53" t="s" s="2">
         <v>337</v>
       </c>
@@ -7923,7 +7923,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="57" hidden="true">
+    <row r="57">
       <c r="A57" t="s" s="2">
         <v>360</v>
       </c>
@@ -9635,7 +9635,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="73" hidden="true">
+    <row r="73">
       <c r="A73" t="s" s="2">
         <v>432</v>
       </c>
@@ -11777,12 +11777,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AL92">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>

--- a/main/ig/StructureDefinition-as-dr-healthcareservice-healthcare-activity.xlsx
+++ b/main/ig/StructureDefinition-as-dr-healthcareservice-healthcare-activity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-08T12:14:02+00:00</t>
+    <t>2025-10-08T12:28:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-dr-healthcareservice-healthcare-activity.xlsx
+++ b/main/ig/StructureDefinition-as-dr-healthcareservice-healthcare-activity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-08T12:28:03+00:00</t>
+    <t>2025-10-08T12:56:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -8043,7 +8043,7 @@
         <v>76</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>75</v>

--- a/main/ig/StructureDefinition-as-dr-healthcareservice-healthcare-activity.xlsx
+++ b/main/ig/StructureDefinition-as-dr-healthcareservice-healthcare-activity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-08T12:56:25+00:00</t>
+    <t>2025-10-08T13:03:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-dr-healthcareservice-healthcare-activity.xlsx
+++ b/main/ig/StructureDefinition-as-dr-healthcareservice-healthcare-activity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-08T13:03:27+00:00</t>
+    <t>2025-10-10T07:08:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
